--- a/data/outputs/OR/48.xlsx
+++ b/data/outputs/OR/48.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ64"/>
+  <dimension ref="A1:BR64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -925,6 +930,7 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1138,6 +1144,7 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1347,6 +1354,7 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1564,6 +1572,7 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1765,6 +1774,7 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1974,6 +1984,7 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2187,6 +2198,7 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2400,6 +2412,7 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2609,6 +2622,7 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2818,6 +2832,7 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3027,6 +3042,7 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3240,6 +3256,7 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3457,6 +3474,11 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr">
+        <is>
+          <t>2941062</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3666,6 +3688,7 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3867,6 +3890,7 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4076,6 +4100,7 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4293,6 +4318,11 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr">
+        <is>
+          <t>1398644</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4518,6 +4548,7 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4751,6 +4782,7 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4956,6 +4988,7 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5157,6 +5190,7 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5374,6 +5408,7 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5583,6 +5618,7 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5784,6 +5820,7 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6001,6 +6038,7 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6206,6 +6244,7 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6415,6 +6454,7 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6632,6 +6672,7 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6849,6 +6890,7 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7082,6 +7124,7 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7303,6 +7346,7 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7516,6 +7560,7 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7717,6 +7762,7 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7918,6 +7964,7 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8131,6 +8178,7 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8344,6 +8392,7 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8561,6 +8610,7 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8766,6 +8816,7 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8852,7 +8903,7 @@
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>Moghrabi, Issam/0000-0002-4517-7630; </t>
+          <t>Moghrabi, Issam/0000-0002-4517-7630;</t>
         </is>
       </c>
       <c r="AB40" t="inlineStr">
@@ -8983,6 +9034,7 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9188,6 +9240,7 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9417,6 +9470,7 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9638,6 +9692,7 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9847,6 +9902,7 @@
         </is>
       </c>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10056,6 +10112,7 @@
         </is>
       </c>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10265,6 +10322,7 @@
         </is>
       </c>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10474,6 +10532,7 @@
         </is>
       </c>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10679,6 +10738,7 @@
         </is>
       </c>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10892,6 +10952,7 @@
         </is>
       </c>
       <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11097,6 +11158,7 @@
         </is>
       </c>
       <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11302,6 +11364,7 @@
         </is>
       </c>
       <c r="BQ51" t="inlineStr"/>
+      <c r="BR51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11507,6 +11570,7 @@
         </is>
       </c>
       <c r="BQ52" t="inlineStr"/>
+      <c r="BR52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11716,6 +11780,7 @@
         </is>
       </c>
       <c r="BQ53" t="inlineStr"/>
+      <c r="BR53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11917,6 +11982,7 @@
         </is>
       </c>
       <c r="BQ54" t="inlineStr"/>
+      <c r="BR54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12106,6 +12172,7 @@
         </is>
       </c>
       <c r="BQ55" t="inlineStr"/>
+      <c r="BR55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12315,6 +12382,11 @@
         </is>
       </c>
       <c r="BQ56" t="inlineStr"/>
+      <c r="BR56" t="inlineStr">
+        <is>
+          <t>2500455</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12528,6 +12600,7 @@
         </is>
       </c>
       <c r="BQ57" t="inlineStr"/>
+      <c r="BR57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12745,6 +12818,7 @@
         </is>
       </c>
       <c r="BQ58" t="inlineStr"/>
+      <c r="BR58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -12950,6 +13024,7 @@
         </is>
       </c>
       <c r="BQ59" t="inlineStr"/>
+      <c r="BR59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13155,6 +13230,7 @@
         </is>
       </c>
       <c r="BQ60" t="inlineStr"/>
+      <c r="BR60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13360,6 +13436,7 @@
         </is>
       </c>
       <c r="BQ61" t="inlineStr"/>
+      <c r="BR61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13569,6 +13646,7 @@
         </is>
       </c>
       <c r="BQ62" t="inlineStr"/>
+      <c r="BR62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13762,6 +13840,7 @@
         </is>
       </c>
       <c r="BQ63" t="inlineStr"/>
+      <c r="BR63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -13987,6 +14066,7 @@
         </is>
       </c>
       <c r="BQ64" t="inlineStr"/>
+      <c r="BR64" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
